--- a/contratos/contratos-12-2009.xlsx
+++ b/contratos/contratos-12-2009.xlsx
@@ -514,13 +514,13 @@
     <t>DIAZ JULIA Y DUARTE LAUTARO</t>
   </si>
   <si>
-    <t>FERNANDEZ MARIO H, GALLICET OSCAR M</t>
-  </si>
-  <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
-  </si>
-  <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>FERNANDEZ MARIO H. GALLICET OSCAR M</t>
+  </si>
+  <si>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+  </si>
+  <si>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>RETAMAR JOSE LUIS</t>
@@ -859,343 +859,343 @@
     <t>237</t>
   </si>
   <si>
-    <t>1.550,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>24.999,00</t>
-  </si>
-  <si>
-    <t>189,92</t>
-  </si>
-  <si>
-    <t>11.280,00</t>
-  </si>
-  <si>
-    <t>22.169,00</t>
-  </si>
-  <si>
-    <t>26.824,40</t>
-  </si>
-  <si>
-    <t>271,66</t>
-  </si>
-  <si>
-    <t>105,73</t>
-  </si>
-  <si>
-    <t>2.515,50</t>
-  </si>
-  <si>
-    <t>5.600,57</t>
-  </si>
-  <si>
-    <t>333,20</t>
-  </si>
-  <si>
-    <t>698,70</t>
-  </si>
-  <si>
-    <t>6.608,79</t>
-  </si>
-  <si>
-    <t>960,00</t>
-  </si>
-  <si>
-    <t>80,00</t>
-  </si>
-  <si>
-    <t>413,00</t>
-  </si>
-  <si>
-    <t>950,00</t>
-  </si>
-  <si>
-    <t>137,00</t>
-  </si>
-  <si>
-    <t>1.172,90</t>
-  </si>
-  <si>
-    <t>116,00</t>
-  </si>
-  <si>
-    <t>129,10</t>
-  </si>
-  <si>
-    <t>9,00</t>
-  </si>
-  <si>
-    <t>219,00</t>
-  </si>
-  <si>
-    <t>590,00</t>
-  </si>
-  <si>
-    <t>2.183,37</t>
-  </si>
-  <si>
-    <t>630,00</t>
-  </si>
-  <si>
-    <t>739,04</t>
-  </si>
-  <si>
-    <t>12,00</t>
-  </si>
-  <si>
-    <t>264,00</t>
-  </si>
-  <si>
-    <t>764,70</t>
-  </si>
-  <si>
-    <t>150,00</t>
-  </si>
-  <si>
-    <t>6,50</t>
-  </si>
-  <si>
-    <t>585,40</t>
-  </si>
-  <si>
-    <t>226,38</t>
-  </si>
-  <si>
-    <t>510,00</t>
-  </si>
-  <si>
-    <t>464,00</t>
-  </si>
-  <si>
-    <t>130,00</t>
-  </si>
-  <si>
-    <t>1.107,15</t>
-  </si>
-  <si>
-    <t>4.386,00</t>
-  </si>
-  <si>
-    <t>2.990,00</t>
-  </si>
-  <si>
-    <t>10.853,20</t>
-  </si>
-  <si>
-    <t>203,00</t>
-  </si>
-  <si>
-    <t>269,00</t>
-  </si>
-  <si>
-    <t>228,60</t>
-  </si>
-  <si>
-    <t>550,00</t>
-  </si>
-  <si>
-    <t>108,90</t>
-  </si>
-  <si>
-    <t>340,00</t>
-  </si>
-  <si>
-    <t>499.233,27</t>
-  </si>
-  <si>
-    <t>110.472,98</t>
-  </si>
-  <si>
-    <t>64,00</t>
-  </si>
-  <si>
-    <t>52,50</t>
-  </si>
-  <si>
-    <t>409,19</t>
-  </si>
-  <si>
-    <t>3.213,00</t>
-  </si>
-  <si>
-    <t>72,00</t>
-  </si>
-  <si>
-    <t>1.809,50</t>
-  </si>
-  <si>
-    <t>1.690,00</t>
-  </si>
-  <si>
-    <t>233,70</t>
-  </si>
-  <si>
-    <t>373,00</t>
-  </si>
-  <si>
-    <t>2.631,60</t>
-  </si>
-  <si>
-    <t>386,00</t>
-  </si>
-  <si>
-    <t>28,00</t>
-  </si>
-  <si>
-    <t>3.284,40</t>
-  </si>
-  <si>
-    <t>185,50</t>
-  </si>
-  <si>
-    <t>104,91</t>
-  </si>
-  <si>
-    <t>511,00</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>47,00</t>
-  </si>
-  <si>
-    <t>120,00</t>
-  </si>
-  <si>
-    <t>757,00</t>
-  </si>
-  <si>
-    <t>2.541,50</t>
-  </si>
-  <si>
-    <t>18.500,00</t>
-  </si>
-  <si>
-    <t>8.505,87</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>1.250,00</t>
-  </si>
-  <si>
-    <t>285,00</t>
-  </si>
-  <si>
-    <t>9.317,00</t>
-  </si>
-  <si>
-    <t>4.333,74</t>
-  </si>
-  <si>
-    <t>878,00</t>
-  </si>
-  <si>
-    <t>4.932,72</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>67,50</t>
-  </si>
-  <si>
-    <t>170,00</t>
-  </si>
-  <si>
-    <t>1.635,00</t>
-  </si>
-  <si>
-    <t>1.981,00</t>
-  </si>
-  <si>
-    <t>174,00</t>
-  </si>
-  <si>
-    <t>60,00</t>
-  </si>
-  <si>
-    <t>450,00</t>
-  </si>
-  <si>
-    <t>216,20</t>
-  </si>
-  <si>
-    <t>745,00</t>
-  </si>
-  <si>
-    <t>258,64</t>
-  </si>
-  <si>
-    <t>21.636,00</t>
-  </si>
-  <si>
-    <t>330,00</t>
-  </si>
-  <si>
-    <t>2.884,00</t>
-  </si>
-  <si>
-    <t>1.941,40</t>
-  </si>
-  <si>
-    <t>2.098,92</t>
-  </si>
-  <si>
-    <t>380,00</t>
-  </si>
-  <si>
-    <t>19,47</t>
-  </si>
-  <si>
-    <t>9.100,00</t>
-  </si>
-  <si>
-    <t>868,00</t>
-  </si>
-  <si>
-    <t>723,00</t>
-  </si>
-  <si>
-    <t>1.762,25</t>
-  </si>
-  <si>
-    <t>838,87</t>
-  </si>
-  <si>
-    <t>12.420,00</t>
-  </si>
-  <si>
-    <t>1.150,00</t>
-  </si>
-  <si>
-    <t>4.340,21</t>
-  </si>
-  <si>
-    <t>12.879,00</t>
-  </si>
-  <si>
-    <t>238,00</t>
-  </si>
-  <si>
-    <t>847.458,12</t>
-  </si>
-  <si>
-    <t>1.900,00</t>
-  </si>
-  <si>
-    <t>1.114,26</t>
-  </si>
-  <si>
-    <t>4.600,00</t>
+    <t>1550.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>24999.00</t>
+  </si>
+  <si>
+    <t>189.92</t>
+  </si>
+  <si>
+    <t>11280.00</t>
+  </si>
+  <si>
+    <t>22169.00</t>
+  </si>
+  <si>
+    <t>26824.40</t>
+  </si>
+  <si>
+    <t>271.66</t>
+  </si>
+  <si>
+    <t>105.73</t>
+  </si>
+  <si>
+    <t>2515.50</t>
+  </si>
+  <si>
+    <t>5600.57</t>
+  </si>
+  <si>
+    <t>333.20</t>
+  </si>
+  <si>
+    <t>698.70</t>
+  </si>
+  <si>
+    <t>6608.79</t>
+  </si>
+  <si>
+    <t>960.00</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>413.00</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>137.00</t>
+  </si>
+  <si>
+    <t>1172.90</t>
+  </si>
+  <si>
+    <t>116.00</t>
+  </si>
+  <si>
+    <t>129.10</t>
+  </si>
+  <si>
+    <t>9.00</t>
+  </si>
+  <si>
+    <t>219.00</t>
+  </si>
+  <si>
+    <t>590.00</t>
+  </si>
+  <si>
+    <t>2183.37</t>
+  </si>
+  <si>
+    <t>630.00</t>
+  </si>
+  <si>
+    <t>739.04</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>264.00</t>
+  </si>
+  <si>
+    <t>764.70</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>6.50</t>
+  </si>
+  <si>
+    <t>585.40</t>
+  </si>
+  <si>
+    <t>226.38</t>
+  </si>
+  <si>
+    <t>510.00</t>
+  </si>
+  <si>
+    <t>464.00</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>1107.15</t>
+  </si>
+  <si>
+    <t>4386.00</t>
+  </si>
+  <si>
+    <t>2990.00</t>
+  </si>
+  <si>
+    <t>10853.20</t>
+  </si>
+  <si>
+    <t>203.00</t>
+  </si>
+  <si>
+    <t>269.00</t>
+  </si>
+  <si>
+    <t>228.60</t>
+  </si>
+  <si>
+    <t>550.00</t>
+  </si>
+  <si>
+    <t>108.90</t>
+  </si>
+  <si>
+    <t>340.00</t>
+  </si>
+  <si>
+    <t>499233.27</t>
+  </si>
+  <si>
+    <t>110472.98</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>52.50</t>
+  </si>
+  <si>
+    <t>409.19</t>
+  </si>
+  <si>
+    <t>3213.00</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>1809.50</t>
+  </si>
+  <si>
+    <t>1690.00</t>
+  </si>
+  <si>
+    <t>233.70</t>
+  </si>
+  <si>
+    <t>373.00</t>
+  </si>
+  <si>
+    <t>2631.60</t>
+  </si>
+  <si>
+    <t>386.00</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>3284.40</t>
+  </si>
+  <si>
+    <t>185.50</t>
+  </si>
+  <si>
+    <t>104.91</t>
+  </si>
+  <si>
+    <t>511.00</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>757.00</t>
+  </si>
+  <si>
+    <t>2541.50</t>
+  </si>
+  <si>
+    <t>18500.00</t>
+  </si>
+  <si>
+    <t>8505.87</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>1250.00</t>
+  </si>
+  <si>
+    <t>285.00</t>
+  </si>
+  <si>
+    <t>9317.00</t>
+  </si>
+  <si>
+    <t>4333.74</t>
+  </si>
+  <si>
+    <t>878.00</t>
+  </si>
+  <si>
+    <t>4932.72</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>67.50</t>
+  </si>
+  <si>
+    <t>170.00</t>
+  </si>
+  <si>
+    <t>1635.00</t>
+  </si>
+  <si>
+    <t>1981.00</t>
+  </si>
+  <si>
+    <t>174.00</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>216.20</t>
+  </si>
+  <si>
+    <t>745.00</t>
+  </si>
+  <si>
+    <t>258.64</t>
+  </si>
+  <si>
+    <t>21636.00</t>
+  </si>
+  <si>
+    <t>330.00</t>
+  </si>
+  <si>
+    <t>2884.00</t>
+  </si>
+  <si>
+    <t>1941.40</t>
+  </si>
+  <si>
+    <t>2098.92</t>
+  </si>
+  <si>
+    <t>380.00</t>
+  </si>
+  <si>
+    <t>19.47</t>
+  </si>
+  <si>
+    <t>9100.00</t>
+  </si>
+  <si>
+    <t>868.00</t>
+  </si>
+  <si>
+    <t>723.00</t>
+  </si>
+  <si>
+    <t>1762.25</t>
+  </si>
+  <si>
+    <t>838.87</t>
+  </si>
+  <si>
+    <t>12420.00</t>
+  </si>
+  <si>
+    <t>1150.00</t>
+  </si>
+  <si>
+    <t>4340.21</t>
+  </si>
+  <si>
+    <t>12879.00</t>
+  </si>
+  <si>
+    <t>238.00</t>
+  </si>
+  <si>
+    <t>847458.12</t>
+  </si>
+  <si>
+    <t>1900.00</t>
+  </si>
+  <si>
+    <t>1114.26</t>
+  </si>
+  <si>
+    <t>4600.00</t>
   </si>
 </sst>
 </file>
